--- a/Figures/MS/gam_stat_table_YSL_ice_on_formatted.xlsx
+++ b/Figures/MS/gam_stat_table_YSL_ice_on_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/isol5015_colorado_edu/Documents/Research/Data/R/NC_YSL_Ice_Phenology/Figures/MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9CC0FF1-E3E7-674C-ADFB-72CACDB3C2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A2673C7-E608-8444-A151-CDE04C8771F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46180" yWindow="1140" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="-29140" yWindow="6240" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="gam_stat_table_YSL_ice_on" sheetId="1" r:id="rId1"/>
@@ -49,33 +49,34 @@
     <t>aic</t>
   </si>
   <si>
-    <t>s(NovSnow)</t>
+    <t>s(FallTempSum)</t>
+  </si>
+  <si>
+    <t>s(OctTempSum)</t>
+  </si>
+  <si>
+    <t>s(OctMin)</t>
+  </si>
+  <si>
+    <t>s(FallMin)</t>
   </si>
   <si>
     <t>s(DecMin)</t>
   </si>
   <si>
-    <t>s(WinterTempSum)</t>
-  </si>
-  <si>
     <t>s(DecTempSum)</t>
-  </si>
-  <si>
-    <t>s(WinterMax)</t>
-  </si>
-  <si>
-    <t>s(JanMin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +211,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +397,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -514,8 +516,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -558,66 +561,62 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,18 +928,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -972,526 +969,526 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
-        <v>1.00036880028354</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.0007314929390501</v>
-      </c>
-      <c r="E2" s="8">
-        <v>5.9087017931865899</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.8594958367562399E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.23954925615056599</v>
+      <c r="C2" s="6">
+        <v>1.00015709682854</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0003005377913401</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.0886555407859504</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.7603982622932597E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.42326828683691903</v>
       </c>
       <c r="H2" s="9">
-        <v>-204.431121547456</v>
-      </c>
-      <c r="I2" s="12">
-        <v>420.47779624751098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I2" s="9">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
-        <v>1.00008553446846</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.00016869942347</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.3258346592910701</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.13342142320619099</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.23954925615056599</v>
+      <c r="C3" s="6">
+        <v>1.00004078857001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.00007566325344</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.161206592454157</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.68950717117689797</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.42326828683691903</v>
       </c>
       <c r="H3" s="9">
-        <v>-204.431121547456</v>
-      </c>
-      <c r="I3" s="12">
-        <v>420.47779624751098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I3" s="9">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.1676255453616</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.7580238955451799</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.90128756680377597</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.34456310102040699</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.42326828683691903</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I4" s="9">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.0000489512658499</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.00009518784966</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.3793781814334001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.24483491499113899</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.42326828683691903</v>
+      </c>
+      <c r="H5" s="9">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I5" s="9">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0000737002303699</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.0001456624309599</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.0760868311683902</v>
+      </c>
+      <c r="F6" s="7">
+        <v>8.4557773055036797E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.42326828683691903</v>
+      </c>
+      <c r="H6" s="9">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I6" s="9">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
-        <v>1.4603722665837999</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.80687638393635</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.3236472955883201</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.37193923741747298</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.23954925615056599</v>
-      </c>
-      <c r="H4" s="9">
-        <v>-204.431121547456</v>
-      </c>
-      <c r="I4" s="12">
-        <v>420.47779624751098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C7" s="2">
+        <v>1.0000113098471699</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0000224267417801</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.70817829475694605</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40339647128101302</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.42326828683691903</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-238.52770657953499</v>
+      </c>
+      <c r="I7" s="3">
+        <v>496.572739906295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>1.00021750206598</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1.0004307120370599</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5.2093263593034704</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.6823331720546399E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.27701810825579898</v>
-      </c>
-      <c r="H5" s="11">
-        <v>-203.13042329661801</v>
-      </c>
-      <c r="I5" s="13">
-        <v>422.04601789674598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C8" s="6">
+        <v>1.0004026818599701</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.00076775039763</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10.3920591441645</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.0274036742964898E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.42230026792298597</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-238.52328420880701</v>
+      </c>
+      <c r="I8" s="9">
+        <v>494.64837142728999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.00009438402312</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1.0001799816960499</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.77132243960835</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.18937543725202199</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.27701810825579898</v>
-      </c>
-      <c r="H6" s="11">
-        <v>-203.13042329661801</v>
-      </c>
-      <c r="I6" s="13">
-        <v>422.04601789674598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.2010967427886099</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.7995795729994102</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.08994670406105</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.280258681427967</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.42230026792298597</v>
+      </c>
+      <c r="H9" s="9">
+        <v>-238.52328420880701</v>
+      </c>
+      <c r="I9" s="9">
+        <v>494.64837142728999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.0002482494674401</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.0004824022963801</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.2025273253538802</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.14287561803471199</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.42230026792298597</v>
+      </c>
+      <c r="H10" s="9">
+        <v>-238.52328420880701</v>
+      </c>
+      <c r="I10" s="9">
+        <v>494.64837142728999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
-        <v>1.9567541855511399</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2.46742380346585</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.93911693011395303</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.524105512028047</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.27701810825579898</v>
-      </c>
-      <c r="H7" s="11">
-        <v>-203.13042329661801</v>
-      </c>
-      <c r="I7" s="13">
-        <v>422.04601789674598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C11" s="6">
+        <v>1.0000113019416601</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.00002236226386</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.9855242137326101</v>
+      </c>
+      <c r="F11" s="7">
+        <v>8.9071693618892098E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.42230026792298597</v>
+      </c>
+      <c r="H11" s="9">
+        <v>-238.52328420880701</v>
+      </c>
+      <c r="I11" s="9">
+        <v>494.64837142728999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
-        <v>1.22900096430684</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.4245511545556799</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.97281106488040403</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.45387637549044402</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.27701810825579898</v>
-      </c>
-      <c r="H8" s="11">
-        <v>-203.13042329661801</v>
-      </c>
-      <c r="I8" s="13">
-        <v>422.04601789674598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C12" s="6">
+        <v>1.0000249127509</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.0000494168804099</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.65519917656310001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.42141934950196702</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.42230026792298597</v>
+      </c>
+      <c r="H12" s="9">
+        <v>-238.52328420880701</v>
+      </c>
+      <c r="I12" s="9">
+        <v>494.64837142728999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
-        <v>1.0001379886844699</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.0002729072954299</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5.1919411004710101</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2.7167632826750499E-2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.27945353146032198</v>
-      </c>
-      <c r="H9" s="11">
-        <v>-203.106424716905</v>
-      </c>
-      <c r="I9" s="14">
-        <v>423.97897578327502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C13" s="6">
+        <v>1.0003944970865599</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.00075132649289</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10.2530216500063</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.1478552284015999E-3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.409227782722623</v>
+      </c>
+      <c r="H13" s="9">
+        <v>-239.21803671233499</v>
+      </c>
+      <c r="I13" s="9">
+        <v>493.40182896800098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1.00011311681467</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1.0002153002162699</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.82013273609123705</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.36968065143921403</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.27945353146032198</v>
-      </c>
-      <c r="H10" s="11">
-        <v>-203.106424716905</v>
-      </c>
-      <c r="I10" s="14">
-        <v>423.97897578327502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.9509555603026301</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.4813930576396901</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.10801022394255</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.276823654612673</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.409227782722623</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-239.21803671233499</v>
+      </c>
+      <c r="I14" s="9">
+        <v>493.40182896800098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10">
-        <v>1.0000673768698001</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.0001268911577099</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.10471717854473001</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.74774209649083601</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.27945353146032198</v>
-      </c>
-      <c r="H11" s="11">
-        <v>-203.106424716905</v>
-      </c>
-      <c r="I11" s="14">
-        <v>423.97897578327502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C15" s="6">
+        <v>1.00035888104021</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.00069564462409</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.5138892631948599</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.22309570294416101</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.409227782722623</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-239.21803671233499</v>
+      </c>
+      <c r="I15" s="9">
+        <v>493.40182896800098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
-        <v>1.97356030512936</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2.4852465588945298</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.988304438070017</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.50332180590028497</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.27945353146032198</v>
-      </c>
-      <c r="H12" s="11">
-        <v>-203.106424716905</v>
-      </c>
-      <c r="I12" s="14">
-        <v>423.97897578327502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1.21335637950418</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1.39720151716817</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.67187675391120705</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.57016720314952996</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.27945353146032198</v>
-      </c>
-      <c r="H13" s="11">
-        <v>-203.106424716905</v>
-      </c>
-      <c r="I13" s="14">
-        <v>423.97897578327502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C16" s="6">
+        <v>1.0000190662253099</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.00003774290889</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7.84112535052172</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.8006135058596897E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.409227782722623</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-239.21803671233499</v>
+      </c>
+      <c r="I16" s="9">
+        <v>493.40182896800098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
-        <v>1.00021481510065</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1.0004239738757801</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5.0095220201089203</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2.99612639463025E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H14" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I14" s="13">
-        <v>426.08430925174298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C17" s="6">
+        <v>1.41988347558671</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.7198347217319501</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9.0260944846782802</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.7180341207322899E-3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.39993147610569502</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-249.48048701762499</v>
+      </c>
+      <c r="I17" s="9">
+        <v>514.51176726666995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1.00004601758352</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1.0000875077018601</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.86651924539440295</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.35668261134709001</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H15" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I15" s="13">
-        <v>426.08430925174298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.4132510475462401</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.0553021994082101</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.92777248478006802</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.39756253311571099</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.39993147610569502</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-249.48048701762499</v>
+      </c>
+      <c r="I18" s="9">
+        <v>514.51176726666995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1.00221598596712</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1.00408445936921</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5.2202676813694102E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.82226699813511395</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H16" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I16" s="13">
-        <v>426.08430925174298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1.0000589071413299</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1.0001107549094299</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.117942629519608</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.732887999347823</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H17" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I17" s="13">
-        <v>426.08430925174298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
-        <v>1.9855595217698701</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2.4960224405915299</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.55438714089105001</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.51099513390764795</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H18" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I18" s="13">
-        <v>426.08430925174298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1.2865895416723201</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1.52300343221271</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.61657158686287505</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.61611227259219103</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.28406654514169399</v>
-      </c>
-      <c r="H19" s="11">
-        <v>-203.01842205721101</v>
-      </c>
-      <c r="I19" s="13">
-        <v>426.08430925174298</v>
+      <c r="C19" s="6">
+        <v>1.0001304082290901</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.00025969457</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9.3365650107115297</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3.25468773365433E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.39993147610569502</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-249.48048701762499</v>
+      </c>
+      <c r="I19" s="9">
+        <v>514.51176726666995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1501,26 +1498,26 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10">
-        <v>1.1667888927382399</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1.3147040414424001</v>
-      </c>
-      <c r="E20" s="10">
-        <v>4.5661688103770004</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2.18078933070768E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.20911161938789299</v>
-      </c>
-      <c r="H20" s="11">
-        <v>-212.150676464936</v>
-      </c>
-      <c r="I20" s="13">
-        <v>432.93243262482798</v>
+      <c r="C20" s="2">
+        <v>1.0001555457008799</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.0003110755948199</v>
+      </c>
+      <c r="E20" s="2">
+        <v>21.196300899984202</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.90520187673404E-5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.34875819802086599</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-252.2961267858</v>
+      </c>
+      <c r="I20" s="3">
+        <v>512.59345931951395</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1528,35 +1525,32 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1.00041819736078</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1.0008358060348499</v>
-      </c>
-      <c r="E21" s="10">
-        <v>5.9857037293551798</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1.7701320020004699E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.20911161938789299</v>
-      </c>
-      <c r="H21" s="11">
-        <v>-212.150676464936</v>
-      </c>
-      <c r="I21" s="13">
-        <v>432.93243262482798</v>
-      </c>
-    </row>
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.00014590682258</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.00029179836188</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.5290233781383407</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.7351428444752297E-3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.34875819802086599</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-252.2961267858</v>
+      </c>
+      <c r="I21" s="3">
+        <v>512.59345931951395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition ref="I2:I21"/>
-    <sortCondition ref="A2:A21"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>